--- a/ResultadoEleicoesDistritos/LEIRIA_ALCOBAÇA.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_ALCOBAÇA.xlsx
@@ -597,64 +597,64 @@
         <v>14642</v>
       </c>
       <c r="H2" t="n">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="I2" t="n">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="J2" t="n">
-        <v>6263</v>
+        <v>6037</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L2" t="n">
-        <v>1647</v>
+        <v>1610</v>
       </c>
       <c r="M2" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N2" t="n">
-        <v>998</v>
+        <v>1109</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
         <v>28</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R2" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S2" t="n">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="T2" t="n">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="U2" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="V2" t="n">
-        <v>9189</v>
+        <v>9148</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>9349</v>
+        <v>9519</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AA2" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
